--- a/testCase/case.xlsx
+++ b/testCase/case.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>用例ID</t>
   </si>
@@ -45,10 +45,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{"code":0,"data":{"id":"3ED25B0B10CB00B4E0530A6464A6E3A7","isNewRecord":false,"remarks":"","delFlag":"0","name":"深圳测试","password":"","picname":"https://testres.dbc61.com/res/userfiles/m/3ED25B0B10CB00B4E0530A6464A6E3A7/images/2017-09-191505827998641.png","picback":"userfiles/m/3ED25B0B10CB00B4E0530A6464A6E3A7/images/2016-12-091481267511070.png","mobile":"18565660212","contactor":"王总经理","telephone":"18565660212","creatdate":"2016-10-14 19:08:33","updatedates":"2016-10-25 15:10:35","logindate":"2016-10-25 15:10:35","customertype":2,"points":50,"customertypename":"批发商","ecompany":{"id":"3c154b3aaaf94e1eb4a0f88e88942709","isNewRecord":false,"remarks":"","delFlag":"0","parentId":"0","name":"深圳海吉星国际农产品物流园","sort":30},"city":{"id":"5631","isNewRecord":false,"remarks":"","delFlag":"0","parentId":"0","name":"深圳市","sort":30},"deviceno":"100d85590978d747c14","unreadnum":0,"isshowmobile":0,"shopid":"A1014","shopsMain":"0","wxOpenid":"oaHhbxA9iNoR0z-6wmPDsbd8Npw8","wxName":"麦哈","isAuth":"3","management":"2006","rent":"长租","naturetype":"企业","browseNum":1476,"todayBrowseNum":0,"newBusinessNun":0,"edynamicNum":0,"collectNum":0,"appVersion":"4.1.0","jumpUrl":"","borrowUrl":"","selectEcustomerid":"3ED25B0B10CB00B4E0530A6464A6E3A7","selectEcustomername":"深圳测试","todayAmount":"0.00","yearAmount":"0.00","appsecretkey":"0254d748bc9044ddb3a3e8732c6a7588","ecustomershopList":[{"id":"f753da412a2d4404a1fd17fd4a4b2ffc","isNewRecord":false,"remarks":"","delFlag":"0","ecustomerid":"3ED25B0B10CB00B4E0530A6464A6E3A7","shopid":"A1014","shopname":"深圳测试","ecompanyid":"3c154b3aaaf94e1eb4a0f88e88942709"}],"marketList":[],"isWalletOpen":"1","mainIsWalletOpen":"0","isImpMrch":"2","mainIsImpMrch":"0","mainContactor":"","mainTelephone":"","payFunction":1,"walletMarketId":"3c154b3aaaf94e1eb4a0f88e88942709","walletMarketName":"","imServiceId":"1a9b337771954813b5a2268b76b34f10","servicePhone":"18565660212","customerOrderNum":{},"merchatOrderNum":{},"activityMsg":"","activityStatus":"","activityUrl":"","lastWeekOrderRank":{},"acctName":"","result":"","payUrl":"","ecustomervarietiesList":[{"id":"0f80ddc5d134410d91a7be6493743d40","isNewRecord":false,"remarks":"","delFlag":"0","ecustomer":{"id":"3ED25B0B10CB00B4E0530A6464A6E3A7","isNewRecord":false,"remarks":"","delFlag":"0","name":"深圳测试","contactor":"深圳测试","ecompany":{"isNewRecord":true,"remarks":"","delFlag":"0","parentId":"0","sort":30},"city":{"isNewRecord":true,"remarks":"","delFlag":"0","parentId":"0","sort":30},"deviceno":"","unreadnum":0,"isshowmobile":0,"management":"","rent":"","naturetype":"","browseNum":0,"todayBrowseNum":0,"newBusinessNun":0,"edynamicNum":0,"collectNum":0,"appVersion":"","jumpUrl":"","borrowUrl":"","selectEcustomerid":"","selectEcustomername":"","todayAmount":"0.00","yearAmount":"0.00","appsecretkey":"","ecustomershopList":[],"marketList":[],"isWalletOpen":"0","mainIsWalletOpen":"0","isImpMrch":"0","mainIsImpMrch":"0","mainContactor":"","mainTelephone":"","payFunction":-1,"walletMarketId":"","walletMarketName":"","imServiceId":"","servicePhone":"","customerOrderNum":{},"merchatOrderNum":{},"activityMsg":"","activityStatus":"","activityUrl":"","lastWeekOrderRank":{},"acctName":"","result":"","payUrl":"","ecustomervarietiesList":[],"mainId":"3ED25B0B10CB00B4E0530A6464A6E3A7","nameByOrder":"深圳测试","contactorByOrder":"深圳测试"},"eproducetypeid":"2764d19e353340cf8801d29463d69d0e","eproducetypename":"紫晶枣"},{"id":"f711e87247094ebd8c0f0e10e2ff7266","isNewRecord":false,"remarks":"","delFlag":"0","ecustomer":{"id":"3ED25B0B10CB00B4E0530A6464A6E3A7","isNewRecord":false,"remarks":"","delFlag":"0","name":"深圳测试","contactor":"深圳测试","ecompany":{"isNewRecord":true,"remarks":"","delFlag":"0","parentId":"0","sort":30},"city":{"isNewRecord":true,"remarks":"","delFlag":"0","parentId":"0","sort":30},"deviceno":"","unreadnum":0,"isshowmobile":0,"management":"","rent":"","naturetype":"","browseNum":0,"todayBrowseNum":0,"newBusinessNun":0,"edynamicNum":0,"collectNum":0,"appVersion":"","jumpUrl":"","borrowUrl":"","selectEcustomerid":"","selectEcustomername":"","todayAmount":"0.00","yearAmount":"0.00","appsecretkey":"","ecustomershopList":[],"marketList":[],"isWalletOpen":"0","mainIsWalletOpen":"0","isImpMrch":"0","mainIsImpMrch":"0","mainContactor":"","mainTelephone":"","payFunction":-1,"walletMarketId":"","walletMarketName":"","imServiceId":"","servicePhone":"","customerOrderNum":{},"merchatOrderNum":{},"activityMsg":"","activityStatus":"","activityUrl":"","lastWeekOrderRank":{},"acctName":"","result":"","payUrl":"","ecustomervarietiesList":[],"mainId":"3ED25B0B10CB00B4E0530A6464A6E3A7","nameByOrder":"深圳测试","contactorByOrder":"深圳测试"},"eproducetypeid":"220D46491AF92CE5E050A8C043012F5B","eproducetypename":"苹果"}],"mainId":"3ED25B0B10CB00B4E0530A6464A6E3A7","nameByOrder":"深圳测试","contactorByOrder":"王总经理"},"descs":"登录成功","timestamp":1520216356379}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>POST</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -69,14 +65,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{
-    "code": 0,
-    "descs": "退出成功",
-    "timestamp": 1520234792234
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>https://test.dbc61.com/app/user/loginOut</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -93,15 +81,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{
-    "code": 0,
-    "descs": "修改成功",
-    "timestamp": 1520240814954
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>修改订单时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>code=0</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -471,8 +455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -506,7 +490,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="409.5">
+    <row r="2" spans="1:7" ht="67.5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -514,56 +498,56 @@
         <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="67.5">
+    <row r="3" spans="1:7" ht="54">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
       <c r="F3" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="67.5">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
